--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\DemoModels_SelfLearning\DemoS_007_SL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1E0F02-B104-4F3D-8DD5-56D930A53BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C40A1F-CE93-470F-8B3A-751FB653ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>mt LNG</t>
+  </si>
+  <si>
+    <t>Pdef-25</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -850,6 +853,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,13 +1248,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1904</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -3392,86 +3396,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:C17"/>
+  <dimension ref="B3:D37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.86328125" customWidth="1"/>
-    <col min="3" max="3" width="29.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.265625" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2005</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <v>1</v>
       </c>
       <c r="C13" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="14">
         <v>2</v>
       </c>
       <c r="C14" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="14"/>
       <c r="C15" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
       <c r="C16" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="14"/>
       <c r="C17" s="14">
         <v>5</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3487,7 +3610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
